--- a/freqdistwordsMarked.xlsx
+++ b/freqdistwordsMarked.xlsx
@@ -5267,7 +5267,7 @@
     <t>count</t>
   </si>
   <si>
-    <t>relivent</t>
+    <t>relevent</t>
   </si>
 </sst>
 </file>
@@ -5586,8 +5586,8 @@
   <dimension ref="A1:E1541"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
